--- a/Revisi Anggaran/17 Maret 2023/Matrik semula Menjadi usulan revisi perencanaan.xlsx
+++ b/Revisi Anggaran/17 Maret 2023/Matrik semula Menjadi usulan revisi perencanaan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADK\11. ADK_2023\Revisi Pusdik\Usulan perencanaan TL Rakernis 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACK\PUSDIK\2023\Github\TA.2023\Revisi Anggaran\17 Maret 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE313E56-C7D4-4444-8E49-17949D922A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FD6729-AE55-46DA-8D96-0E246A8BDFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{580BC6AC-78E5-43F1-8329-1101FD493269}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{580BC6AC-78E5-43F1-8329-1101FD493269}"/>
   </bookViews>
   <sheets>
     <sheet name="SM" sheetId="4" r:id="rId1"/>
@@ -625,6 +625,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,7 +641,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -751,6 +751,69 @@
           <a:r>
             <a:rPr lang="en-ID" sz="1400"/>
             <a:t>Norma MP Manoppo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Callout: Bent Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45644DBD-1AE1-8389-8C02-E3D0F1A5214D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19062700" y="14490700"/>
+          <a:ext cx="3340100" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400" b="1"/>
+            <a:t>Salah Rumus</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1060,89 +1123,89 @@
   <dimension ref="A1:O245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H245" sqref="H245"/>
+      <selection pane="bottomRight" activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.3984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="45.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5" customWidth="1"/>
-    <col min="3" max="3" width="5.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.8984375" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.296875" customWidth="1"/>
-    <col min="14" max="14" width="16.69921875" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.88671875" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L4" s="45">
+      <c r="L4" s="40">
         <f>L167+L152+L143+L41+L26</f>
         <v>796940000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -6919,7 +6982,7 @@
         <v>-48478000</v>
       </c>
     </row>
-    <row r="194" spans="1:13" s="17" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" s="17" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="22" t="s">
         <v>28</v>
       </c>
@@ -8360,10 +8423,10 @@
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A238" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B238" s="43"/>
+      <c r="A238" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="44"/>
       <c r="C238" s="18"/>
       <c r="D238" s="39"/>
       <c r="E238" s="20"/>
@@ -8424,13 +8487,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -8553,10 +8616,10 @@
       <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
